--- a/MyApp/excel_sheets/output_2020-01-01_10.xlsx
+++ b/MyApp/excel_sheets/output_2020-01-01_10.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,18 +523,18 @@
         <v>10</v>
       </c>
       <c r="F2" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -555,7 +555,7 @@
         <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>27.4</v>
+        <v>25</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -587,7 +587,7 @@
         <v>10</v>
       </c>
       <c r="F4" t="n">
-        <v>23.6</v>
+        <v>28.4</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
@@ -600,6 +600,38 @@
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
     </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>C:\DatesWorkspace\DateIQP\MyApp\DateImages\2020-01-01_10\date_4.jpg</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>44983</v>
+      </c>
+      <c r="E5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F5" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
